--- a/SalesSummary.xlsx
+++ b/SalesSummary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>True Sum</t>
   </si>
@@ -32,10 +32,25 @@
     <t>Sum</t>
   </si>
   <si>
-    <t>Confint Low</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t>Confint High</t>
+    <t>Standard Error Of the Mean</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Upper Bound</t>
+  </si>
+  <si>
+    <t>Standard Error of the Sum</t>
+  </si>
+  <si>
+    <t>Seed</t>
   </si>
 </sst>
 </file>
@@ -46,7 +61,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +82,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,12 +110,120 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -89,13 +231,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -377,148 +565,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G7"/>
+      <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" s="22" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <f>101010</f>
+        <v>101010</v>
+      </c>
+      <c r="C3" s="7">
+        <v>143338</v>
+      </c>
+      <c r="D3" s="7">
+        <v>888.02099599999997</v>
+      </c>
+      <c r="E3" s="7">
+        <v>141593.068</v>
+      </c>
+      <c r="F3" s="8">
+        <v>145082.64799999999</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1399264168</v>
+      </c>
+      <c r="H3" s="7">
+        <v>8668861</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1382231528</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1416296809</v>
+      </c>
+      <c r="K3" t="b">
+        <f>($G$9&gt;I3)&amp;J3&gt;$G$9</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>ABS(G3-$G$9)/$G$9</f>
+        <v>7.5272050760153203E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <f>B3+1</f>
+        <v>101011</v>
+      </c>
+      <c r="C4" s="7">
+        <v>142149</v>
+      </c>
+      <c r="D4" s="7">
+        <v>841.23502399999995</v>
+      </c>
+      <c r="E4" s="7">
+        <v>140496.15</v>
+      </c>
+      <c r="F4" s="8">
+        <v>143801.88</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1387658685</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8212136</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1371523420</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1403793949</v>
+      </c>
+      <c r="K4" t="b">
+        <f>($G$9&gt;I4)&amp;J4&gt;$G$9</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>ABS(G4-$G$9)/$G$9</f>
+        <v>8.2921547555218748E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B7" si="0">B4+1</f>
+        <v>101012</v>
+      </c>
+      <c r="C5" s="7">
+        <v>142560</v>
+      </c>
+      <c r="D5" s="7">
+        <v>859.10780499999998</v>
+      </c>
+      <c r="E5" s="7">
+        <v>140872.50899999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>144248.47099999999</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1391675501</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8386610</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1375197428</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1408153574</v>
+      </c>
+      <c r="K5" t="b">
+        <f>($G$9&gt;I5)&amp;J5&gt;$G$9</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>ABS(G5-$G$9)/$G$9</f>
+        <v>2.0630556840596261E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>101013</v>
+      </c>
+      <c r="C6" s="7">
+        <v>142048</v>
+      </c>
+      <c r="D6" s="7">
+        <v>881.02856199999997</v>
+      </c>
+      <c r="E6" s="7">
+        <v>140316.64499999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>143778.74799999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1386669612</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8600601</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1386669612</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1403568134</v>
+      </c>
+      <c r="K6" t="b">
+        <f>($G$9&gt;I6)&amp;J6&gt;$G$9</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>ABS(G6-$G$9)/$G$9</f>
+        <v>1.5413883290388136E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>101014</v>
+      </c>
+      <c r="C7" s="12">
+        <v>141222</v>
+      </c>
+      <c r="D7" s="12">
+        <v>901.00850000000003</v>
+      </c>
+      <c r="E7" s="12">
+        <v>139451.851</v>
+      </c>
+      <c r="F7" s="13">
+        <v>142992.467</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1378610719</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8795646</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1378610719</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1395892467</v>
+      </c>
+      <c r="K7" t="b">
+        <f>($G$9&gt;I7)&amp;J7&gt;$G$9</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>ABS(G7-$G$9)/$G$9</f>
+        <v>7.344119597361168E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="G9" s="4">
         <v>1388810308</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1399264168</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1382231528</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1416296809</v>
-      </c>
-      <c r="E3" t="b">
-        <f>($B$2&gt;C3)&amp;D3&gt;$B$2</f>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f>ABS(B3-$B$2)/$B$2</f>
-        <v>7.5272050760153203E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1387658685</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1371523420</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1403793949</v>
-      </c>
-      <c r="E4" t="b">
-        <f t="shared" ref="E4:E7" si="0">($B$2&gt;C4)&amp;D4&gt;$B$2</f>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G7" si="1">ABS(B4-$B$2)/$B$2</f>
-        <v>8.2921547555218748E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1391675501</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1375197428</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1408153574</v>
-      </c>
-      <c r="E5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>2.0630556840596261E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1386669612</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1386669612</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1403568134</v>
-      </c>
-      <c r="E6" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1.5413883290388136E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1378610719</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1378610719</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1395892467</v>
-      </c>
-      <c r="E7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>7.344119597361168E-3</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
